--- a/Курсач.xlsx
+++ b/Курсач.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Знания\учебный склад\4 курс\Курсач\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B9F39F3-A8E6-4BC3-93AF-B660E31BD961}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{13154A8E-7C2D-4101-8967-3F2A8DF18EAF}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19470" yWindow="2025" windowWidth="14865" windowHeight="11775" xr2:uid="{F41D39F4-3BE7-423C-BBC5-20A543100AE8}"/>
+    <workbookView xWindow="13035" yWindow="3330" windowWidth="12705" windowHeight="11775" xr2:uid="{F41D39F4-3BE7-423C-BBC5-20A543100AE8}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="64">
   <si>
     <t>P</t>
   </si>
@@ -114,9 +115,6 @@
     <t xml:space="preserve">Распределение температуры </t>
   </si>
   <si>
-    <t>290.5</t>
-  </si>
-  <si>
     <t>Tтн(z)=</t>
   </si>
   <si>
@@ -139,6 +137,96 @@
   </si>
   <si>
     <t>Haz</t>
+  </si>
+  <si>
+    <t>Sпрох</t>
+  </si>
+  <si>
+    <t>dтв</t>
+  </si>
+  <si>
+    <t>Nnk</t>
+  </si>
+  <si>
+    <t>Dnk</t>
+  </si>
+  <si>
+    <t>П</t>
+  </si>
+  <si>
+    <t>Nсуз</t>
+  </si>
+  <si>
+    <t>Dсуз</t>
+  </si>
+  <si>
+    <t>dг</t>
+  </si>
+  <si>
+    <t>Dцк</t>
+  </si>
+  <si>
+    <t>xi</t>
+  </si>
+  <si>
+    <t>Re</t>
+  </si>
+  <si>
+    <t>Nu🐓</t>
+  </si>
+  <si>
+    <t>Pr</t>
+  </si>
+  <si>
+    <t>NuDitBolt</t>
+  </si>
+  <si>
+    <t>lambsr</t>
+  </si>
+  <si>
+    <t>alpha1</t>
+  </si>
+  <si>
+    <t>a1</t>
+  </si>
+  <si>
+    <t>a2</t>
+  </si>
+  <si>
+    <t>NuMih</t>
+  </si>
+  <si>
+    <t>a3</t>
+  </si>
+  <si>
+    <t>alphasr</t>
+  </si>
+  <si>
+    <t>Распределение оболочки</t>
+  </si>
+  <si>
+    <t>SRi</t>
+  </si>
+  <si>
+    <t>lambdagz</t>
+  </si>
+  <si>
+    <t>lambdaob</t>
+  </si>
+  <si>
+    <t>lambdatop</t>
+  </si>
+  <si>
+    <t>deltagz</t>
+  </si>
+  <si>
+    <t>0.35</t>
+  </si>
+  <si>
+    <t>dPtr</t>
+  </si>
+  <si>
+    <t>rhosr</t>
   </si>
 </sst>
 </file>
@@ -228,7 +316,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -249,6 +337,7 @@
     <xf numFmtId="17" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="16" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -2136,16 +2225,16 @@
   </xdr:oneCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>472956</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>32837</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>249611</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>164216</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>570744</xdr:colOff>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>347400</xdr:colOff>
       <xdr:row>35</xdr:row>
-      <xdr:rowOff>145677</xdr:rowOff>
+      <xdr:rowOff>79987</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2472,13 +2561,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1776AFD2-E7A1-473C-A080-D2C9DD88E143}">
   <dimension ref="A1:W47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+    <sheetView tabSelected="1" topLeftCell="A14" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="D37" sqref="D37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -3100,20 +3190,24 @@
       <c r="B21" s="3"/>
       <c r="C21" s="3"/>
       <c r="D21" s="3"/>
-      <c r="E21" s="3"/>
+      <c r="E21" s="3" t="s">
+        <v>12</v>
+      </c>
       <c r="F21" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="G21" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="G21" s="3" t="s">
+      <c r="H21" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="H21" s="3" t="s">
+      <c r="I21" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="I21" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="J21" s="3"/>
+      <c r="J21" s="3" t="s">
+        <v>35</v>
+      </c>
       <c r="K21" s="3"/>
       <c r="L21" s="3"/>
       <c r="M21" s="3"/>
@@ -3132,7 +3226,10 @@
       <c r="D22" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="E22" s="3"/>
+      <c r="E22" s="3">
+        <f>234</f>
+        <v>234</v>
+      </c>
       <c r="F22" s="3">
         <v>317</v>
       </c>
@@ -3146,7 +3243,10 @@
       <c r="I22" s="3">
         <v>3.5</v>
       </c>
-      <c r="J22" s="3"/>
+      <c r="J22" s="3">
+        <f>9.1</f>
+        <v>9.1</v>
+      </c>
       <c r="K22" s="3"/>
       <c r="L22" s="3"/>
       <c r="M22" s="3"/>
@@ -3169,11 +3269,21 @@
         <v>5606.060606060606</v>
       </c>
       <c r="E23" s="3"/>
-      <c r="F23" s="3"/>
-      <c r="G23" s="11"/>
-      <c r="H23" s="3"/>
-      <c r="I23" s="3"/>
-      <c r="J23" s="3"/>
+      <c r="F23" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="G23" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="H23" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="I23" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="J23" s="3" t="s">
+        <v>36</v>
+      </c>
       <c r="K23" s="3"/>
       <c r="L23" s="3"/>
       <c r="M23" s="3"/>
@@ -3187,11 +3297,23 @@
       <c r="C24" s="3"/>
       <c r="D24" s="3"/>
       <c r="E24" s="3"/>
-      <c r="F24" s="3"/>
-      <c r="G24" s="3"/>
-      <c r="H24" s="3"/>
-      <c r="I24" s="3"/>
-      <c r="J24" s="3"/>
+      <c r="F24" s="14">
+        <f>10.3</f>
+        <v>10.3</v>
+      </c>
+      <c r="G24" s="14">
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="H24" s="3">
+        <v>1308</v>
+      </c>
+      <c r="I24" s="3">
+        <f>12.6</f>
+        <v>12.6</v>
+      </c>
+      <c r="J24" s="3">
+        <v>12</v>
+      </c>
       <c r="K24" s="3"/>
       <c r="L24" s="3"/>
       <c r="M24" s="3"/>
@@ -3221,24 +3343,28 @@
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B26" s="3" t="s">
         <v>23</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D26" s="3"/>
       <c r="E26" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="F26" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="F26" s="3" t="s">
-        <v>30</v>
-      </c>
       <c r="G26" s="3"/>
-      <c r="H26" s="3"/>
-      <c r="I26" s="3"/>
+      <c r="H26" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="I26" s="3" t="s">
+        <v>38</v>
+      </c>
       <c r="J26" s="3"/>
       <c r="K26" s="3"/>
       <c r="L26" s="3"/>
@@ -3249,16 +3375,31 @@
     </row>
     <row r="27" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A27" s="3"/>
-      <c r="B27" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="C27" s="3"/>
+      <c r="B27" s="3">
+        <v>287</v>
+      </c>
+      <c r="C27" s="3">
+        <f>F20*F22*H22*G22/(C23*D23*PI())</f>
+        <v>14.947010226536861</v>
+      </c>
       <c r="D27" s="3"/>
-      <c r="E27" s="3"/>
-      <c r="F27" s="3"/>
+      <c r="E27" s="3">
+        <f>PI()/G22</f>
+        <v>1.1810498697705989</v>
+      </c>
+      <c r="F27" s="3">
+        <f>PI()*I22/(2*G22)</f>
+        <v>2.0668372720985482</v>
+      </c>
       <c r="G27" s="3"/>
-      <c r="H27" s="3"/>
-      <c r="I27" s="3"/>
+      <c r="H27" s="3">
+        <f>SQRT(3)/2*(E22-3)^2-F22*PI()*J22^2/4-J24*PI()*I24^2/4-F24^2*PI()/4</f>
+        <v>24015.074385366013</v>
+      </c>
+      <c r="I27" s="3">
+        <f>F22*PI()*J22+J24*PI()*I24+PI()*F24+2*(E22-3)*SQRT(3)</f>
+        <v>10370.127014462048</v>
+      </c>
       <c r="J27" s="3"/>
       <c r="K27" s="3"/>
       <c r="L27" s="3"/>
@@ -3290,12 +3431,22 @@
       <c r="B29" s="3"/>
       <c r="C29" s="3"/>
       <c r="D29" s="3"/>
-      <c r="E29" s="3"/>
+      <c r="E29" s="3" t="s">
+        <v>41</v>
+      </c>
       <c r="F29" s="3"/>
-      <c r="G29" s="3"/>
-      <c r="H29" s="3"/>
-      <c r="I29" s="3"/>
-      <c r="J29" s="3"/>
+      <c r="G29" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="H29" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="I29" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="J29" s="3" t="s">
+        <v>46</v>
+      </c>
       <c r="K29" s="3"/>
       <c r="L29" s="3"/>
       <c r="M29" s="3"/>
@@ -3308,12 +3459,26 @@
       <c r="B30" s="3"/>
       <c r="C30" s="3"/>
       <c r="D30" s="3"/>
-      <c r="E30" s="3"/>
+      <c r="E30" s="3">
+        <f>4*H27/I27</f>
+        <v>9.2631746368679551</v>
+      </c>
       <c r="F30" s="3"/>
-      <c r="G30" s="3"/>
-      <c r="H30" s="3"/>
-      <c r="I30" s="3"/>
-      <c r="J30" s="3"/>
+      <c r="G30" s="3">
+        <f>5.15*10^5</f>
+        <v>515000.00000000006</v>
+      </c>
+      <c r="H30" s="3">
+        <f>(1.82*LOG(G30)-1.64)^(-2)</f>
+        <v>1.3044852443772844E-2</v>
+      </c>
+      <c r="I30" s="3">
+        <f>H30/8*G30*J30/( 1.07 + 12.7*(J30^(2/3)-1)*SQRT(H30/8) )</f>
+        <v>976.059295718974</v>
+      </c>
+      <c r="J30" s="14">
+        <v>1.39</v>
+      </c>
       <c r="K30" s="3"/>
       <c r="L30" s="3"/>
       <c r="M30" s="3"/>
@@ -3322,16 +3487,32 @@
       <c r="P30" s="1"/>
     </row>
     <row r="31" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A31" s="3"/>
-      <c r="B31" s="3"/>
-      <c r="C31" s="3"/>
-      <c r="D31" s="3"/>
+      <c r="A31" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="D31" s="3" t="s">
+        <v>60</v>
+      </c>
       <c r="E31" s="11"/>
       <c r="F31" s="3"/>
-      <c r="G31" s="3"/>
-      <c r="H31" s="3"/>
-      <c r="I31" s="3"/>
-      <c r="J31" s="3"/>
+      <c r="G31" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="H31" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="I31" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="J31" s="3" t="s">
+        <v>50</v>
+      </c>
       <c r="K31" s="3"/>
       <c r="L31" s="3"/>
       <c r="M31" s="3"/>
@@ -3340,16 +3521,32 @@
       <c r="P31" s="1"/>
     </row>
     <row r="32" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A32" s="3"/>
-      <c r="B32" s="3"/>
-      <c r="C32" s="3"/>
-      <c r="D32" s="3"/>
+      <c r="A32" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="B32" s="3">
+        <v>23</v>
+      </c>
+      <c r="C32" s="3">
+        <v>3</v>
+      </c>
+      <c r="D32" s="3">
+        <v>3</v>
+      </c>
       <c r="E32" s="3"/>
       <c r="F32" s="3"/>
       <c r="G32" s="3"/>
-      <c r="H32" s="3"/>
-      <c r="I32" s="3"/>
-      <c r="J32" s="3"/>
+      <c r="H32" s="3">
+        <v>0.44700000000000001</v>
+      </c>
+      <c r="I32" s="3">
+        <f>0.023*G30^(0.8)*J30^(0.4)</f>
+        <v>973.59770021097836</v>
+      </c>
+      <c r="J32" s="3">
+        <f>I30*H32/E30*10^3</f>
+        <v>47100.321681282869</v>
+      </c>
       <c r="K32" s="3"/>
       <c r="L32" s="3"/>
       <c r="M32" s="3"/>
@@ -3364,8 +3561,12 @@
       <c r="F33" s="3"/>
       <c r="G33" s="3"/>
       <c r="H33" s="3"/>
-      <c r="I33" s="3"/>
-      <c r="J33" s="3"/>
+      <c r="I33" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="J33" s="3" t="s">
+        <v>51</v>
+      </c>
       <c r="K33" s="3"/>
       <c r="L33" s="3"/>
       <c r="M33" s="3"/>
@@ -3380,40 +3581,68 @@
       <c r="F34" s="3"/>
       <c r="G34" s="3"/>
       <c r="H34" s="3"/>
-      <c r="I34" s="3"/>
-      <c r="J34" s="3"/>
+      <c r="I34" s="3">
+        <f>0.021*G30^(0.8)*J30^(0.43)</f>
+        <v>897.76246141588388</v>
+      </c>
+      <c r="J34" s="3">
+        <f>I32*H32/E30*10^3</f>
+        <v>46981.535926376062</v>
+      </c>
       <c r="K34" s="3"/>
       <c r="L34" s="3"/>
       <c r="M34" s="3"/>
       <c r="N34" s="1"/>
     </row>
     <row r="35" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A35" s="3"/>
+      <c r="A35" s="3" t="s">
+        <v>55</v>
+      </c>
       <c r="B35" s="3"/>
       <c r="C35" s="11"/>
       <c r="D35" s="11"/>
       <c r="E35" s="3"/>
       <c r="F35" s="3"/>
       <c r="G35" s="3"/>
-      <c r="H35" s="3"/>
+      <c r="H35" s="3" t="s">
+        <v>54</v>
+      </c>
       <c r="I35" s="3"/>
-      <c r="J35" s="3"/>
+      <c r="J35" s="3" t="s">
+        <v>53</v>
+      </c>
       <c r="K35" s="3"/>
       <c r="L35" s="3"/>
       <c r="M35" s="3"/>
       <c r="N35" s="1"/>
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A36" s="3"/>
-      <c r="B36" s="3"/>
+      <c r="A36" s="3">
+        <f>H22/(PI()*J22*10^(-3)*H36)</f>
+        <v>21.378651813290617</v>
+      </c>
+      <c r="B36" s="3">
+        <f>PI()/G22</f>
+        <v>1.1810498697705989</v>
+      </c>
       <c r="C36" s="3"/>
-      <c r="D36" s="13"/>
-      <c r="E36" s="3"/>
+      <c r="D36" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="E36" s="3" t="s">
+        <v>63</v>
+      </c>
       <c r="F36" s="3"/>
       <c r="G36" s="3"/>
-      <c r="H36" s="3"/>
+      <c r="H36" s="3">
+        <f>(J32+J34+J36)/3</f>
+        <v>45801.306331409221</v>
+      </c>
       <c r="I36" s="3"/>
-      <c r="J36" s="3"/>
+      <c r="J36" s="3">
+        <f>I34*H32/E30*10^3</f>
+        <v>43322.061386568734</v>
+      </c>
       <c r="K36" s="3"/>
       <c r="L36" s="3"/>
       <c r="M36" s="3"/>
@@ -3423,8 +3652,13 @@
       <c r="A37" s="3"/>
       <c r="B37" s="3"/>
       <c r="C37" s="11"/>
-      <c r="D37" s="3"/>
-      <c r="E37" s="3"/>
+      <c r="D37" s="3">
+        <f>1/(2*E30*10^(-3)) * (C23/F20/H27*10^6)^2*H30/E37</f>
+        <v>13633.446396658695</v>
+      </c>
+      <c r="E37" s="3">
+        <v>720</v>
+      </c>
       <c r="F37" s="3"/>
       <c r="G37" s="3"/>
       <c r="H37" s="3"/>
@@ -3436,7 +3670,9 @@
       <c r="N37" s="1"/>
     </row>
     <row r="38" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A38" s="3"/>
+      <c r="A38" s="3" t="s">
+        <v>56</v>
+      </c>
       <c r="B38" s="3"/>
       <c r="C38" s="3"/>
       <c r="D38" s="3"/>

--- a/Курсач.xlsx
+++ b/Курсач.xlsx
@@ -8,15 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Знания\учебный склад\4 курс\Курсач\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{13154A8E-7C2D-4101-8967-3F2A8DF18EAF}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99E027B2-CF69-4956-B2E5-6D33058B8E3F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13035" yWindow="3330" windowWidth="12705" windowHeight="11775" xr2:uid="{F41D39F4-3BE7-423C-BBC5-20A543100AE8}"/>
+    <workbookView xWindow="960" yWindow="900" windowWidth="14670" windowHeight="12720" xr2:uid="{F41D39F4-3BE7-423C-BBC5-20A543100AE8}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -35,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="76">
   <si>
     <t>P</t>
   </si>
@@ -227,6 +226,42 @@
   </si>
   <si>
     <t>rhosr</t>
+  </si>
+  <si>
+    <t>dPusk</t>
+  </si>
+  <si>
+    <t>rhovih</t>
+  </si>
+  <si>
+    <t>rhovh</t>
+  </si>
+  <si>
+    <t>dPniv</t>
+  </si>
+  <si>
+    <t>xivh</t>
+  </si>
+  <si>
+    <t>xvih</t>
+  </si>
+  <si>
+    <t>xresh</t>
+  </si>
+  <si>
+    <t>dPmest</t>
+  </si>
+  <si>
+    <t>dP</t>
+  </si>
+  <si>
+    <t>Npr</t>
+  </si>
+  <si>
+    <t>eta'</t>
+  </si>
+  <si>
+    <t>Qel</t>
   </si>
 </sst>
 </file>
@@ -2561,14 +2596,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1776AFD2-E7A1-473C-A080-D2C9DD88E143}">
   <dimension ref="A1:W47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="D37" sqref="D37"/>
+    <sheetView tabSelected="1" topLeftCell="A24" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="F27" sqref="F27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="13.28515625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.85546875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -3690,10 +3726,18 @@
     <row r="39" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A39" s="3"/>
       <c r="B39" s="3"/>
-      <c r="C39" s="3"/>
-      <c r="D39" s="3"/>
-      <c r="E39" s="3"/>
-      <c r="F39" s="3"/>
+      <c r="C39" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="D39" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="E39" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="F39" s="3" t="s">
+        <v>66</v>
+      </c>
       <c r="G39" s="3"/>
       <c r="H39" s="3"/>
       <c r="I39" s="3"/>
@@ -3706,10 +3750,20 @@
     <row r="40" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A40" s="3"/>
       <c r="B40" s="3"/>
-      <c r="C40" s="3"/>
-      <c r="D40" s="3"/>
-      <c r="E40" s="3"/>
-      <c r="F40" s="3"/>
+      <c r="C40" s="3">
+        <f>(F40-E40)*9.8*I22</f>
+        <v>2445.5900000000024</v>
+      </c>
+      <c r="D40" s="3">
+        <f>(C23/F20/H27*10^6)^2*(1/E40-1/F40)</f>
+        <v>1941.2578367967694</v>
+      </c>
+      <c r="E40" s="3">
+        <v>680.8</v>
+      </c>
+      <c r="F40" s="3">
+        <v>752.1</v>
+      </c>
       <c r="G40" s="3"/>
       <c r="H40" s="3"/>
       <c r="I40" s="3"/>
@@ -3720,9 +3774,15 @@
       <c r="N40" s="1"/>
     </row>
     <row r="41" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A41" s="3"/>
-      <c r="B41" s="3"/>
-      <c r="C41" s="3"/>
+      <c r="A41" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="B41" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="C41" s="3" t="s">
+        <v>70</v>
+      </c>
       <c r="D41" s="3"/>
       <c r="E41" s="3"/>
       <c r="F41" s="3"/>
@@ -3736,12 +3796,22 @@
       <c r="N41" s="1"/>
     </row>
     <row r="42" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A42" s="3"/>
-      <c r="B42" s="3"/>
-      <c r="C42" s="3"/>
+      <c r="A42" s="3">
+        <v>0.26</v>
+      </c>
+      <c r="B42" s="3">
+        <v>0.26</v>
+      </c>
+      <c r="C42" s="3">
+        <v>0.45</v>
+      </c>
       <c r="D42" s="3"/>
-      <c r="E42" s="3"/>
-      <c r="F42" s="3"/>
+      <c r="E42" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="F42" s="3" t="s">
+        <v>72</v>
+      </c>
       <c r="G42" s="3"/>
       <c r="H42" s="3"/>
       <c r="I42" s="3"/>
@@ -3756,8 +3826,14 @@
       <c r="B43" s="3"/>
       <c r="C43" s="3"/>
       <c r="D43" s="3"/>
-      <c r="E43" s="3"/>
-      <c r="F43" s="3"/>
+      <c r="E43" s="3">
+        <f>(C23/F20/H27*10^6)^2/2*(A42/F40+B42/E40+13*C42/E37)</f>
+        <v>61706.340165020214</v>
+      </c>
+      <c r="F43" s="3">
+        <f>E43+D40+C40+D37</f>
+        <v>79726.634398475682</v>
+      </c>
       <c r="G43" s="3"/>
       <c r="H43" s="3"/>
       <c r="I43" s="3"/>
@@ -3787,10 +3863,16 @@
       <c r="A45" s="1"/>
       <c r="B45" s="1"/>
       <c r="C45" s="1"/>
-      <c r="D45" s="1"/>
-      <c r="E45" s="1"/>
+      <c r="D45" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="E45" s="1" t="s">
+        <v>74</v>
+      </c>
       <c r="F45" s="1"/>
-      <c r="G45" s="1"/>
+      <c r="G45" s="1" t="s">
+        <v>73</v>
+      </c>
       <c r="H45" s="1"/>
       <c r="I45" s="1"/>
       <c r="J45" s="1"/>
@@ -3800,33 +3882,42 @@
       <c r="N45" s="1"/>
     </row>
     <row r="46" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A46" s="2"/>
-      <c r="B46" s="2"/>
-      <c r="C46" s="2"/>
-      <c r="D46" s="2"/>
-      <c r="E46" s="2"/>
-      <c r="F46" s="2"/>
-      <c r="G46" s="2"/>
-      <c r="H46" s="2"/>
-      <c r="I46" s="2"/>
-      <c r="J46" s="2"/>
-      <c r="K46" s="2"/>
+      <c r="A46" s="1"/>
+      <c r="B46" s="1"/>
+      <c r="C46" s="1"/>
+      <c r="D46" s="1">
+        <f>1000*10^6</f>
+        <v>1000000000</v>
+      </c>
+      <c r="E46" s="1">
+        <f>(D46-G46)/B20</f>
+        <v>0.36912241620713837</v>
+      </c>
+      <c r="F46" s="1"/>
+      <c r="G46" s="1">
+        <f>F20*F43*B23/0.8/F40</f>
+        <v>1936661.9051598697</v>
+      </c>
+      <c r="H46" s="1"/>
+      <c r="I46" s="1"/>
+      <c r="J46" s="1"/>
+      <c r="K46" s="1"/>
       <c r="L46" s="2"/>
       <c r="M46" s="2"/>
       <c r="N46" s="2"/>
     </row>
     <row r="47" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A47" s="2"/>
-      <c r="B47" s="2"/>
-      <c r="C47" s="2"/>
-      <c r="D47" s="2"/>
-      <c r="E47" s="2"/>
-      <c r="F47" s="2"/>
-      <c r="G47" s="2"/>
-      <c r="H47" s="2"/>
-      <c r="I47" s="2"/>
-      <c r="J47" s="2"/>
-      <c r="K47" s="2"/>
+      <c r="A47" s="1"/>
+      <c r="B47" s="1"/>
+      <c r="C47" s="1"/>
+      <c r="D47" s="1"/>
+      <c r="E47" s="1"/>
+      <c r="F47" s="1"/>
+      <c r="G47" s="1"/>
+      <c r="H47" s="1"/>
+      <c r="I47" s="1"/>
+      <c r="J47" s="1"/>
+      <c r="K47" s="1"/>
       <c r="L47" s="2"/>
       <c r="M47" s="2"/>
       <c r="N47" s="2"/>

--- a/Курсач.xlsx
+++ b/Курсач.xlsx
@@ -2,15 +2,15 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
-  <workbookPr/>
+  <workbookPr codeName="ЭтаКнига"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Знания\учебный склад\4 курс\Курсач\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99E027B2-CF69-4956-B2E5-6D33058B8E3F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FC86F83-0580-4DAF-9676-439E0A81B942}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="960" yWindow="900" windowWidth="14670" windowHeight="12720" xr2:uid="{F41D39F4-3BE7-423C-BBC5-20A543100AE8}"/>
+    <workbookView xWindow="1515" yWindow="2055" windowWidth="14670" windowHeight="12720" xr2:uid="{F41D39F4-3BE7-423C-BBC5-20A543100AE8}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -301,7 +301,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -311,6 +311,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="1" tint="0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -351,7 +357,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -363,9 +369,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -373,6 +376,12 @@
     <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="16" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -2594,10 +2603,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1776AFD2-E7A1-473C-A080-D2C9DD88E143}">
+  <sheetPr codeName="Лист1"/>
   <dimension ref="A1:W47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A24" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="F27" sqref="F27"/>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2605,7 +2615,7 @@
     <col min="2" max="2" width="13.28515625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12.7109375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:23" x14ac:dyDescent="0.25">
@@ -2658,27 +2668,28 @@
         <v>4</v>
       </c>
       <c r="C3" s="5">
-        <v>2.6</v>
-      </c>
-      <c r="D3" s="6">
+        <v>2.319</v>
+      </c>
+      <c r="D3" s="14">
         <f>220+273</f>
         <v>493</v>
       </c>
       <c r="E3" s="6">
-        <v>2517</v>
+        <f>2518</f>
+        <v>2518</v>
       </c>
       <c r="F3" s="6">
-        <f>943.7*10^(3)</f>
-        <v>943700</v>
+        <f>943600</f>
+        <v>943600</v>
       </c>
       <c r="G3" s="3"/>
-      <c r="H3" s="9" t="s">
+      <c r="H3" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="I3" s="9" t="s">
+      <c r="I3" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="J3" s="9" t="s">
+      <c r="J3" s="8" t="s">
         <v>16</v>
       </c>
       <c r="K3" s="3"/>
@@ -2693,28 +2704,28 @@
       <c r="B4" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="7">
+      <c r="C4" s="15">
         <v>6.5</v>
       </c>
-      <c r="D4" s="6">
-        <f>281+273</f>
-        <v>554</v>
+      <c r="D4" s="14">
+        <f>280+273</f>
+        <v>553</v>
       </c>
       <c r="E4" s="6">
-        <v>3076</v>
+        <v>3068</v>
       </c>
       <c r="F4" s="6">
-        <f>2780*10^3</f>
-        <v>2780000</v>
+        <f>1237000</f>
+        <v>1237000</v>
       </c>
       <c r="G4" s="3"/>
-      <c r="H4" s="9">
-        <v>0.8</v>
-      </c>
-      <c r="I4" s="9">
+      <c r="H4" s="8">
+        <v>0.84130000000000005</v>
+      </c>
+      <c r="I4" s="8">
         <v>7</v>
       </c>
-      <c r="J4" s="9">
+      <c r="J4" s="8">
         <v>1000</v>
       </c>
       <c r="K4" s="3"/>
@@ -2735,18 +2746,18 @@
       <c r="B5" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="6">
+      <c r="C5" s="14">
         <v>6.5</v>
       </c>
-      <c r="D5" s="6">
-        <f>281+273</f>
-        <v>554</v>
+      <c r="D5" s="14">
+        <f>D4</f>
+        <v>553</v>
       </c>
       <c r="E5" s="6">
         <v>5852</v>
       </c>
       <c r="F5" s="6">
-        <f>2779*10^3</f>
+        <f>2779000</f>
         <v>2779000</v>
       </c>
       <c r="G5" s="3"/>
@@ -2774,16 +2785,17 @@
       <c r="C6" s="6">
         <v>1.1299999999999999</v>
       </c>
-      <c r="D6" s="6">
-        <f>185+273</f>
-        <v>458</v>
+      <c r="D6" s="14">
+        <f>170+273</f>
+        <v>443</v>
       </c>
       <c r="E6" s="6">
+        <f>E5</f>
         <v>5852</v>
       </c>
       <c r="F6" s="6">
-        <f>10^3*2465</f>
-        <v>2465000</v>
+        <f>2409000</f>
+        <v>2409000</v>
       </c>
       <c r="G6" s="3"/>
       <c r="H6" s="3"/>
@@ -2802,18 +2814,19 @@
         <v>8</v>
       </c>
       <c r="C7" s="6">
+        <f>C6</f>
         <v>1.1299999999999999</v>
       </c>
-      <c r="D7" s="6">
-        <f>185+273</f>
-        <v>458</v>
+      <c r="D7" s="14">
+        <f>D6</f>
+        <v>443</v>
       </c>
       <c r="E7" s="6">
-        <v>6543</v>
+        <v>6662</v>
       </c>
       <c r="F7" s="6">
-        <f>2782*10^3</f>
-        <v>2782000</v>
+        <f>2768000</f>
+        <v>2768000</v>
       </c>
       <c r="G7" s="3"/>
       <c r="H7" s="3"/>
@@ -2821,7 +2834,7 @@
       <c r="J7" s="3"/>
       <c r="K7" s="3"/>
       <c r="L7" s="3"/>
-      <c r="M7" s="10" t="s">
+      <c r="M7" s="9" t="s">
         <v>2</v>
       </c>
       <c r="N7" s="6">
@@ -2861,18 +2874,19 @@
         <v>9</v>
       </c>
       <c r="C8" s="6">
+        <f>C7</f>
         <v>1.1299999999999999</v>
       </c>
-      <c r="D8" s="6">
-        <f>250+273</f>
-        <v>523</v>
+      <c r="D8" s="14">
+        <f>275+273</f>
+        <v>548</v>
       </c>
       <c r="E8" s="6">
-        <v>6863</v>
+        <v>7140</v>
       </c>
       <c r="F8" s="6">
-        <f>2938*10^3</f>
-        <v>2938000</v>
+        <f>3004000</f>
+        <v>3004000</v>
       </c>
       <c r="G8" s="3"/>
       <c r="H8" s="3"/>
@@ -2880,7 +2894,7 @@
       <c r="J8" s="3"/>
       <c r="K8" s="3"/>
       <c r="L8" s="3"/>
-      <c r="M8" s="10" t="s">
+      <c r="M8" s="9" t="s">
         <v>1</v>
       </c>
       <c r="N8" s="6">
@@ -2932,16 +2946,17 @@
       <c r="C9" s="6">
         <v>2.3E-3</v>
       </c>
-      <c r="D9" s="6">
+      <c r="D9" s="14">
         <f>20+273</f>
         <v>293</v>
       </c>
       <c r="E9" s="6">
-        <v>6863</v>
+        <f>E8</f>
+        <v>7140</v>
       </c>
       <c r="F9" s="6">
-        <f>1998*10^3</f>
-        <v>1998000</v>
+        <f>2088000</f>
+        <v>2088000</v>
       </c>
       <c r="G9" s="3"/>
       <c r="H9" s="3"/>
@@ -2958,16 +2973,16 @@
       <c r="C10" s="6">
         <v>2.3E-3</v>
       </c>
-      <c r="D10" s="6">
+      <c r="D10" s="14">
         <f>20+273</f>
         <v>293</v>
       </c>
       <c r="E10" s="6">
-        <v>295.2</v>
+        <v>295.10000000000002</v>
       </c>
       <c r="F10" s="6">
-        <f>83.92*10^3</f>
-        <v>83920</v>
+        <f>83510</f>
+        <v>83510</v>
       </c>
       <c r="G10" s="3"/>
       <c r="H10" s="3"/>
@@ -2985,19 +3000,20 @@
       <c r="B11" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C11" s="6">
+      <c r="C11" s="14">
         <v>6.5</v>
       </c>
-      <c r="D11" s="6">
+      <c r="D11" s="14">
         <f>20+273</f>
         <v>293</v>
       </c>
       <c r="E11" s="6">
-        <v>295.2</v>
+        <f>E10</f>
+        <v>295.10000000000002</v>
       </c>
       <c r="F11" s="6">
-        <f>90*10^3</f>
-        <v>90000</v>
+        <f>90020</f>
+        <v>90020</v>
       </c>
       <c r="G11" s="3"/>
       <c r="H11" s="3"/>
@@ -3012,22 +3028,23 @@
     </row>
     <row r="12" spans="1:23" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A12" s="3"/>
-      <c r="B12" s="8" t="s">
+      <c r="B12" s="7" t="s">
         <v>13</v>
       </c>
       <c r="C12" s="6">
+        <f>C6</f>
         <v>1.1299999999999999</v>
       </c>
-      <c r="D12" s="6">
-        <f>185+273</f>
-        <v>458</v>
+      <c r="D12" s="14">
+        <f>D6</f>
+        <v>443</v>
       </c>
       <c r="E12" s="6">
-        <v>2188</v>
+        <v>2207</v>
       </c>
       <c r="F12" s="6">
-        <f>785.3*10^3</f>
-        <v>785300</v>
+        <f>794200</f>
+        <v>794200</v>
       </c>
       <c r="G12" s="3"/>
       <c r="H12" s="3"/>
@@ -3115,20 +3132,20 @@
     <row r="17" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A17" s="3"/>
       <c r="B17" s="3">
-        <f xml:space="preserve"> 1 - (D9*(E8-E11)*H4) / ((F5-F12)+H4*((F12-F11)+(F8-F7)))</f>
-        <v>0.4244329093668916</v>
+        <f xml:space="preserve"> 1 - D9*(E8-E11)*H4/(F5-F12+H4*(F12-F11+F8-F7))</f>
+        <v>0.39214274848845598</v>
       </c>
       <c r="C17" s="3">
         <f>1 - D9*(E8-E12)*(E5-E3)/((F5-F3)*(E7-E12)+(F8-F7)*(E8-E3))</f>
-        <v>0.47314568909169175</v>
+        <v>0.48002581430006086</v>
       </c>
       <c r="D17" s="3">
         <f>B17+(C17-B17)*I4/(I4+1)</f>
-        <v>0.4670565916260917</v>
+        <v>0.46904043107361026</v>
       </c>
       <c r="E17" s="3">
         <f>D17*0.85*0.98*0.98*0.97</f>
-        <v>0.36983866866780235</v>
+        <v>0.371409571537552</v>
       </c>
       <c r="F17" s="3"/>
       <c r="G17" s="3"/>
@@ -3192,7 +3209,7 @@
       <c r="A20" s="3"/>
       <c r="B20" s="3">
         <f>J4/E17*10^6</f>
-        <v>2703881677.9275808</v>
+        <v>2692445420.4565196</v>
       </c>
       <c r="C20" s="3"/>
       <c r="D20" s="3">
@@ -3269,12 +3286,12 @@
       <c r="F22" s="3">
         <v>317</v>
       </c>
-      <c r="G22" s="12">
-        <v>2.66</v>
+      <c r="G22" s="11">
+        <v>3.7149999999999999</v>
       </c>
       <c r="H22" s="3">
-        <f>279.93*10^2</f>
-        <v>27993</v>
+        <f>B20*1.5*1.25/(F20*F22*I22)</f>
+        <v>27914.719576639975</v>
       </c>
       <c r="I22" s="3">
         <v>3.5</v>
@@ -3294,11 +3311,11 @@
       <c r="A23" s="3"/>
       <c r="B23" s="3">
         <f>B20/(E20-D20)/F20</f>
-        <v>89.666114340161869</v>
+        <v>89.286865211623933</v>
       </c>
       <c r="C23" s="3">
         <f>B20/(E20-D20)</f>
-        <v>14615.576637446384</v>
+        <v>14553.7590294947</v>
       </c>
       <c r="D23" s="3">
         <f>(E20-D20)/(H20-G20)</f>
@@ -3308,7 +3325,7 @@
       <c r="F23" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="G23" s="11" t="s">
+      <c r="G23" s="10" t="s">
         <v>40</v>
       </c>
       <c r="H23" s="3" t="s">
@@ -3333,11 +3350,11 @@
       <c r="C24" s="3"/>
       <c r="D24" s="3"/>
       <c r="E24" s="3"/>
-      <c r="F24" s="14">
+      <c r="F24" s="13">
         <f>10.3</f>
         <v>10.3</v>
       </c>
-      <c r="G24" s="14">
+      <c r="G24" s="13">
         <v>8.1999999999999993</v>
       </c>
       <c r="H24" s="3">
@@ -3416,16 +3433,16 @@
       </c>
       <c r="C27" s="3">
         <f>F20*F22*H22*G22/(C23*D23*PI())</f>
-        <v>14.947010226536861</v>
+        <v>20.905285980375972</v>
       </c>
       <c r="D27" s="3"/>
       <c r="E27" s="3">
         <f>PI()/G22</f>
-        <v>1.1810498697705989</v>
+        <v>0.84565078158540863</v>
       </c>
       <c r="F27" s="3">
         <f>PI()*I22/(2*G22)</f>
-        <v>2.0668372720985482</v>
+        <v>1.4798888677744653</v>
       </c>
       <c r="G27" s="3"/>
       <c r="H27" s="3">
@@ -3512,7 +3529,7 @@
         <f>H30/8*G30*J30/( 1.07 + 12.7*(J30^(2/3)-1)*SQRT(H30/8) )</f>
         <v>976.059295718974</v>
       </c>
-      <c r="J30" s="14">
+      <c r="J30" s="13">
         <v>1.39</v>
       </c>
       <c r="K30" s="3"/>
@@ -3535,7 +3552,7 @@
       <c r="D31" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="E31" s="11"/>
+      <c r="E31" s="10"/>
       <c r="F31" s="3"/>
       <c r="G31" s="3" t="s">
         <v>49</v>
@@ -3635,8 +3652,8 @@
         <v>55</v>
       </c>
       <c r="B35" s="3"/>
-      <c r="C35" s="11"/>
-      <c r="D35" s="11"/>
+      <c r="C35" s="10"/>
+      <c r="D35" s="10"/>
       <c r="E35" s="3"/>
       <c r="F35" s="3"/>
       <c r="G35" s="3"/>
@@ -3655,14 +3672,14 @@
     <row r="36" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A36" s="3">
         <f>H22/(PI()*J22*10^(-3)*H36)</f>
-        <v>21.378651813290617</v>
+        <v>21.31886794179378</v>
       </c>
       <c r="B36" s="3">
         <f>PI()/G22</f>
-        <v>1.1810498697705989</v>
+        <v>0.84565078158540863</v>
       </c>
       <c r="C36" s="3"/>
-      <c r="D36" s="13" t="s">
+      <c r="D36" s="12" t="s">
         <v>62</v>
       </c>
       <c r="E36" s="3" t="s">
@@ -3687,10 +3704,10 @@
     <row r="37" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A37" s="3"/>
       <c r="B37" s="3"/>
-      <c r="C37" s="11"/>
+      <c r="C37" s="10"/>
       <c r="D37" s="3">
         <f>1/(2*E30*10^(-3)) * (C23/F20/H27*10^6)^2*H30/E37</f>
-        <v>13633.446396658695</v>
+        <v>13518.363050754378</v>
       </c>
       <c r="E37" s="3">
         <v>720</v>
@@ -3756,7 +3773,7 @@
       </c>
       <c r="D40" s="3">
         <f>(C23/F20/H27*10^6)^2*(1/E40-1/F40)</f>
-        <v>1941.2578367967694</v>
+        <v>1924.8711917312703</v>
       </c>
       <c r="E40" s="3">
         <v>680.8</v>
@@ -3828,11 +3845,11 @@
       <c r="D43" s="3"/>
       <c r="E43" s="3">
         <f>(C23/F20/H27*10^6)^2/2*(A42/F40+B42/E40+13*C42/E37)</f>
-        <v>61706.340165020214</v>
+        <v>61185.461446383</v>
       </c>
       <c r="F43" s="3">
         <f>E43+D40+C40+D37</f>
-        <v>79726.634398475682</v>
+        <v>79074.285688868636</v>
       </c>
       <c r="G43" s="3"/>
       <c r="H43" s="3"/>
@@ -3891,12 +3908,12 @@
       </c>
       <c r="E46" s="1">
         <f>(D46-G46)/B20</f>
-        <v>0.36912241620713837</v>
+        <v>0.37069917968259392</v>
       </c>
       <c r="F46" s="1"/>
       <c r="G46" s="1">
         <f>F20*F43*B23/0.8/F40</f>
-        <v>1936661.9051598697</v>
+        <v>1912691.2966115135</v>
       </c>
       <c r="H46" s="1"/>
       <c r="I46" s="1"/>
